--- a/Dependencies.xlsx
+++ b/Dependencies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georg/src/java/java-starter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{070B1353-5A20-8244-B4F1-1A3742C88C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96179FAA-56BF-0140-AD3A-7572E5A2079A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29300" windowHeight="18880" xr2:uid="{BE1673A9-E7D6-324A-90D8-698ED43DB102}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>java-starter</t>
   </si>
   <si>
-    <t>Dependencies</t>
-  </si>
-  <si>
     <t>Java JDK</t>
   </si>
   <si>
@@ -180,6 +177,27 @@
   </si>
   <si>
     <t>3.9.6</t>
+  </si>
+  <si>
+    <t>Von Maven verwaltet</t>
+  </si>
+  <si>
+    <t>Nicht von Maven verwaltet</t>
+  </si>
+  <si>
+    <t>postgres:16.2-alpine</t>
+  </si>
+  <si>
+    <t>step0090</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>https://hub.docker.com/_/postgres</t>
+  </si>
+  <si>
+    <t>Docker-Images</t>
   </si>
 </sst>
 </file>
@@ -242,12 +260,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -583,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6AF7A8-4B39-DA41-940E-3626477FA7E3}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,203 +616,239 @@
     <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="6" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="6" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="4" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="6" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="6" t="s">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1" xr:uid="{D2A96B65-1DDD-0A41-A8E3-06F60E0B68B9}"/>
-    <hyperlink ref="F14" r:id="rId2" xr:uid="{FC29E8FA-A016-CC4B-B78D-BB9E2C535048}"/>
-    <hyperlink ref="F16" r:id="rId3" xr:uid="{6C9D2A81-2AFE-2943-BE6D-2EF402058F30}"/>
-    <hyperlink ref="F17" r:id="rId4" xr:uid="{BF4CE858-7242-164E-8A13-6FD9AF22FA25}"/>
-    <hyperlink ref="F18" r:id="rId5" xr:uid="{22C55E71-843A-7849-938E-E69970D06FBF}"/>
-    <hyperlink ref="F20" r:id="rId6" xr:uid="{3629F2EF-C2FB-174A-B150-1853D4939279}"/>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{D2A96B65-1DDD-0A41-A8E3-06F60E0B68B9}"/>
+    <hyperlink ref="F21" r:id="rId2" xr:uid="{FC29E8FA-A016-CC4B-B78D-BB9E2C535048}"/>
+    <hyperlink ref="F23" r:id="rId3" xr:uid="{6C9D2A81-2AFE-2943-BE6D-2EF402058F30}"/>
+    <hyperlink ref="F24" r:id="rId4" xr:uid="{BF4CE858-7242-164E-8A13-6FD9AF22FA25}"/>
+    <hyperlink ref="F25" r:id="rId5" xr:uid="{22C55E71-843A-7849-938E-E69970D06FBF}"/>
+    <hyperlink ref="F27" r:id="rId6" xr:uid="{3629F2EF-C2FB-174A-B150-1853D4939279}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{12D830EC-62B1-A845-900F-CF58CD102206}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dependencies.xlsx
+++ b/Dependencies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georg/src/java/java-starter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96179FAA-56BF-0140-AD3A-7572E5A2079A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17EC3D7-C37D-594B-A851-B34C5B7681CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29300" windowHeight="18880" xr2:uid="{BE1673A9-E7D6-324A-90D8-698ED43DB102}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{BE1673A9-E7D6-324A-90D8-698ED43DB102}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>java-starter</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Java JDK</t>
   </si>
   <si>
-    <t>Temurin-21.0.2+13</t>
-  </si>
-  <si>
     <t>Step</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>spring-boot-starter-parent</t>
   </si>
   <si>
-    <t>3.2.4</t>
-  </si>
-  <si>
     <t>3.9.6</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>Nicht von Maven verwaltet</t>
   </si>
   <si>
-    <t>postgres:16.2-alpine</t>
-  </si>
-  <si>
     <t>step0090</t>
   </si>
   <si>
@@ -198,13 +189,76 @@
   </si>
   <si>
     <t>Docker-Images</t>
+  </si>
+  <si>
+    <t>Temurin-21.0.3+9</t>
+  </si>
+  <si>
+    <t>postgres:16.3-alpine</t>
+  </si>
+  <si>
+    <t>step0100</t>
+  </si>
+  <si>
+    <t>Java JRE</t>
+  </si>
+  <si>
+    <t>https://hub.docker.com/_/eclipse-temurin</t>
+  </si>
+  <si>
+    <t>eclipse-temurin:21-jre-jammy</t>
+  </si>
+  <si>
+    <t>Docker Maven Plugin</t>
+  </si>
+  <si>
+    <t>io.fabric8</t>
+  </si>
+  <si>
+    <t>docker-maven-plugin</t>
+  </si>
+  <si>
+    <t>0.44.0</t>
+  </si>
+  <si>
+    <t>https://github.com/fabric8io/docker-maven-plugin</t>
+  </si>
+  <si>
+    <t>step0110</t>
+  </si>
+  <si>
+    <t>Keycloak</t>
+  </si>
+  <si>
+    <t>quay.io/keycloak/keycloak:24.0.4</t>
+  </si>
+  <si>
+    <t>https://quay.io/repository/keycloak/keycloak</t>
+  </si>
+  <si>
+    <t>step0120</t>
+  </si>
+  <si>
+    <t>Lombok</t>
+  </si>
+  <si>
+    <t>org.projectlombok</t>
+  </si>
+  <si>
+    <t>lombok</t>
+  </si>
+  <si>
+    <t>1.18.32</t>
+  </si>
+  <si>
+    <t>https://projectlombok.org/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,6 +288,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -256,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -266,6 +326,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -601,17 +662,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6AF7A8-4B39-DA41-940E-3626477FA7E3}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
   </cols>
@@ -623,232 +682,305 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="F29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>43</v>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F19" r:id="rId1" xr:uid="{D2A96B65-1DDD-0A41-A8E3-06F60E0B68B9}"/>
-    <hyperlink ref="F21" r:id="rId2" xr:uid="{FC29E8FA-A016-CC4B-B78D-BB9E2C535048}"/>
-    <hyperlink ref="F23" r:id="rId3" xr:uid="{6C9D2A81-2AFE-2943-BE6D-2EF402058F30}"/>
-    <hyperlink ref="F24" r:id="rId4" xr:uid="{BF4CE858-7242-164E-8A13-6FD9AF22FA25}"/>
-    <hyperlink ref="F25" r:id="rId5" xr:uid="{22C55E71-843A-7849-938E-E69970D06FBF}"/>
-    <hyperlink ref="F27" r:id="rId6" xr:uid="{3629F2EF-C2FB-174A-B150-1853D4939279}"/>
+    <hyperlink ref="F21" r:id="rId1" xr:uid="{D2A96B65-1DDD-0A41-A8E3-06F60E0B68B9}"/>
+    <hyperlink ref="F23" r:id="rId2" xr:uid="{FC29E8FA-A016-CC4B-B78D-BB9E2C535048}"/>
+    <hyperlink ref="F25" r:id="rId3" xr:uid="{6C9D2A81-2AFE-2943-BE6D-2EF402058F30}"/>
+    <hyperlink ref="F26" r:id="rId4" xr:uid="{BF4CE858-7242-164E-8A13-6FD9AF22FA25}"/>
+    <hyperlink ref="F27" r:id="rId5" xr:uid="{22C55E71-843A-7849-938E-E69970D06FBF}"/>
+    <hyperlink ref="F29" r:id="rId6" xr:uid="{3629F2EF-C2FB-174A-B150-1853D4939279}"/>
     <hyperlink ref="D13" r:id="rId7" xr:uid="{12D830EC-62B1-A845-900F-CF58CD102206}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{C8B79798-1867-8A42-9DDB-E4EF006AF2F8}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{7AE77165-B9A2-CC4E-A733-E6E449C6D3E3}"/>
+    <hyperlink ref="F31" r:id="rId10" xr:uid="{1D2F827B-0AFD-7C4D-9869-C655435677B1}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{07F67702-ABBC-AE47-9948-C10932FC5958}"/>
+    <hyperlink ref="F33" r:id="rId12" xr:uid="{73F0ADA9-D192-4249-AD91-00FD6E80543B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dependencies.xlsx
+++ b/Dependencies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georg/src/java/java-starter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17EC3D7-C37D-594B-A851-B34C5B7681CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF3A760-D5EC-D845-B179-EF00933673C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{BE1673A9-E7D6-324A-90D8-698ED43DB102}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>java-starter</t>
   </si>
@@ -89,30 +89,12 @@
     <t>exec-maven-plugin</t>
   </si>
   <si>
-    <t>3.2.0</t>
-  </si>
-  <si>
     <t>https://www.mojohaus.org/exec-maven-plugin/</t>
   </si>
   <si>
     <t>step0030</t>
   </si>
   <si>
-    <t>org.apache.logging.log4j</t>
-  </si>
-  <si>
-    <t>Apache Log4j</t>
-  </si>
-  <si>
-    <t>log4j-core</t>
-  </si>
-  <si>
-    <t>2.23.1</t>
-  </si>
-  <si>
-    <t>https://logging.apache.org/log4j/2.x/</t>
-  </si>
-  <si>
     <t>step0050</t>
   </si>
   <si>
@@ -128,18 +110,12 @@
     <t>maven-surefire-plugin</t>
   </si>
   <si>
-    <t>3.2.5</t>
-  </si>
-  <si>
     <t>org.junit.jupiter</t>
   </si>
   <si>
     <t>junit-jupiter</t>
   </si>
   <si>
-    <t>5.10.2</t>
-  </si>
-  <si>
     <t>https://junit.org/junit5/</t>
   </si>
   <si>
@@ -149,9 +125,6 @@
     <t>assertj-core</t>
   </si>
   <si>
-    <t>3.25.3</t>
-  </si>
-  <si>
     <t>https://assertj.github.io/doc/</t>
   </si>
   <si>
@@ -170,9 +143,6 @@
     <t>spring-boot-starter-parent</t>
   </si>
   <si>
-    <t>3.9.6</t>
-  </si>
-  <si>
     <t>Von Maven verwaltet</t>
   </si>
   <si>
@@ -191,12 +161,6 @@
     <t>Docker-Images</t>
   </si>
   <si>
-    <t>Temurin-21.0.3+9</t>
-  </si>
-  <si>
-    <t>postgres:16.3-alpine</t>
-  </si>
-  <si>
     <t>step0100</t>
   </si>
   <si>
@@ -218,9 +182,6 @@
     <t>docker-maven-plugin</t>
   </si>
   <si>
-    <t>0.44.0</t>
-  </si>
-  <si>
     <t>https://github.com/fabric8io/docker-maven-plugin</t>
   </si>
   <si>
@@ -230,9 +191,6 @@
     <t>Keycloak</t>
   </si>
   <si>
-    <t>quay.io/keycloak/keycloak:24.0.4</t>
-  </si>
-  <si>
     <t>https://quay.io/repository/keycloak/keycloak</t>
   </si>
   <si>
@@ -248,10 +206,55 @@
     <t>lombok</t>
   </si>
   <si>
-    <t>1.18.32</t>
-  </si>
-  <si>
     <t>https://projectlombok.org/</t>
+  </si>
+  <si>
+    <t>Temurin-21.0.6+7</t>
+  </si>
+  <si>
+    <t>postgres:17.4-bookworm</t>
+  </si>
+  <si>
+    <t>quay.io/keycloak/keycloak:26.1.4</t>
+  </si>
+  <si>
+    <t>3.5.0</t>
+  </si>
+  <si>
+    <t>1.5.18</t>
+  </si>
+  <si>
+    <t>Logback</t>
+  </si>
+  <si>
+    <t>ch.qos.logback</t>
+  </si>
+  <si>
+    <t>logback-core</t>
+  </si>
+  <si>
+    <t>logback-classic</t>
+  </si>
+  <si>
+    <t>https://logback.qos.ch</t>
+  </si>
+  <si>
+    <t>3.5.2</t>
+  </si>
+  <si>
+    <t>5.12.1</t>
+  </si>
+  <si>
+    <t>3.27.3</t>
+  </si>
+  <si>
+    <t>3.4.4</t>
+  </si>
+  <si>
+    <t>0.45.1</t>
+  </si>
+  <si>
+    <t>1.18.36</t>
   </si>
 </sst>
 </file>
@@ -323,10 +326,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -662,9 +665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6AF7A8-4B39-DA41-940E-3626477FA7E3}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -682,7 +687,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -704,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
@@ -717,16 +722,16 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="4">
+        <v>40059</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -742,59 +747,59 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -827,10 +832,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -838,130 +843,142 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
         <v>53</v>
       </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>71</v>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -971,16 +988,17 @@
   <hyperlinks>
     <hyperlink ref="F21" r:id="rId1" xr:uid="{D2A96B65-1DDD-0A41-A8E3-06F60E0B68B9}"/>
     <hyperlink ref="F23" r:id="rId2" xr:uid="{FC29E8FA-A016-CC4B-B78D-BB9E2C535048}"/>
-    <hyperlink ref="F25" r:id="rId3" xr:uid="{6C9D2A81-2AFE-2943-BE6D-2EF402058F30}"/>
-    <hyperlink ref="F26" r:id="rId4" xr:uid="{BF4CE858-7242-164E-8A13-6FD9AF22FA25}"/>
-    <hyperlink ref="F27" r:id="rId5" xr:uid="{22C55E71-843A-7849-938E-E69970D06FBF}"/>
-    <hyperlink ref="F29" r:id="rId6" xr:uid="{3629F2EF-C2FB-174A-B150-1853D4939279}"/>
+    <hyperlink ref="F26" r:id="rId3" xr:uid="{6C9D2A81-2AFE-2943-BE6D-2EF402058F30}"/>
+    <hyperlink ref="F27" r:id="rId4" xr:uid="{BF4CE858-7242-164E-8A13-6FD9AF22FA25}"/>
+    <hyperlink ref="F28" r:id="rId5" xr:uid="{22C55E71-843A-7849-938E-E69970D06FBF}"/>
+    <hyperlink ref="F30" r:id="rId6" xr:uid="{3629F2EF-C2FB-174A-B150-1853D4939279}"/>
     <hyperlink ref="D13" r:id="rId7" xr:uid="{12D830EC-62B1-A845-900F-CF58CD102206}"/>
     <hyperlink ref="D6" r:id="rId8" xr:uid="{C8B79798-1867-8A42-9DDB-E4EF006AF2F8}"/>
     <hyperlink ref="D14" r:id="rId9" xr:uid="{7AE77165-B9A2-CC4E-A733-E6E449C6D3E3}"/>
-    <hyperlink ref="F31" r:id="rId10" xr:uid="{1D2F827B-0AFD-7C4D-9869-C655435677B1}"/>
+    <hyperlink ref="F32" r:id="rId10" xr:uid="{1D2F827B-0AFD-7C4D-9869-C655435677B1}"/>
     <hyperlink ref="D15" r:id="rId11" xr:uid="{07F67702-ABBC-AE47-9948-C10932FC5958}"/>
-    <hyperlink ref="F33" r:id="rId12" xr:uid="{73F0ADA9-D192-4249-AD91-00FD6E80543B}"/>
+    <hyperlink ref="F34" r:id="rId12" xr:uid="{73F0ADA9-D192-4249-AD91-00FD6E80543B}"/>
+    <hyperlink ref="D7" r:id="rId13" xr:uid="{62AB5B57-FCD4-7347-A171-17E9509D2C93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
